--- a/Assignment02/training_class.xlsx
+++ b/Assignment02/training_class.xlsx
@@ -385,43 +385,43 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -429,10 +429,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -440,21 +440,21 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -462,10 +462,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -473,10 +473,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -484,10 +484,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -495,10 +495,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -509,18 +509,18 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -528,10 +528,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -550,10 +550,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -561,13 +561,13 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -594,13 +594,13 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,21 +616,21 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -638,10 +638,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -649,10 +649,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -682,21 +682,21 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -704,10 +704,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -718,18 +718,18 @@
         <v>0</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -751,10 +751,10 @@
         <v>0</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -795,18 +795,18 @@
         <v>0</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -836,13 +836,13 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -869,21 +869,21 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -894,21 +894,21 @@
         <v>0</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -949,18 +949,18 @@
         <v>0</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -968,32 +968,32 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1004,18 +1004,18 @@
         <v>0</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1056,10 +1056,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1070,10 +1070,10 @@
         <v>0</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1092,10 +1092,10 @@
         <v>0</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1111,10 +1111,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1144,10 +1144,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1166,10 +1166,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1177,10 +1177,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1188,21 +1188,21 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1224,18 +1224,18 @@
         <v>0</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -1243,13 +1243,13 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1257,21 +1257,21 @@
         <v>0</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1298,10 +1298,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1331,13 +1331,13 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1356,18 +1356,18 @@
         <v>0</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -1433,18 +1433,18 @@
         <v>0</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -1463,10 +1463,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -1474,21 +1474,21 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -1499,18 +1499,18 @@
         <v>0</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -1521,29 +1521,29 @@
         <v>0</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -1551,13 +1551,13 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1565,10 +1565,10 @@
         <v>0</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1595,10 +1595,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -1606,13 +1606,13 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1639,10 +1639,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -1672,21 +1672,21 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -1697,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1708,21 +1708,21 @@
         <v>0</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1730,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1741,21 +1741,21 @@
         <v>0</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1796,21 +1796,21 @@
         <v>0</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1818,21 +1818,21 @@
         <v>0</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1851,10 +1851,10 @@
         <v>0</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1870,32 +1870,32 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -1947,10 +1947,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144">
         <v>0</v>
